--- a/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_December_2021.xlsx
+++ b/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_December_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schwall_Camunda_GITHUB\JavaTraining-Batch1\Naveenraj\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8CCD730-8FB9-413F-A47A-30B49C8F8334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE3C1B7-84A4-413B-817C-AE2D7544B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0A44FA3-7F31-4732-B22F-EE26D4C01EE8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>learn about Getter Setter for update the data in db</t>
+  </si>
+  <si>
+    <t>Earned 10 points and 1 star in HackerRank by solving 4 problems</t>
+  </si>
+  <si>
+    <t>Java practice output formatter</t>
   </si>
 </sst>
 </file>
@@ -218,6 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,10 +237,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +554,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,28 +567,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -590,7 +596,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>44531</v>
       </c>
       <c r="C3" t="s">
@@ -604,7 +610,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>44532</v>
       </c>
       <c r="C4" t="s">
@@ -618,7 +624,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>44533</v>
       </c>
       <c r="C5" t="s">
@@ -632,7 +638,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>44536</v>
       </c>
       <c r="C6" t="s">
@@ -646,27 +652,36 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>44537</v>
       </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>44538</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>44539</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>44540</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>44541</v>
       </c>
     </row>

--- a/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_December_2021.xlsx
+++ b/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_December_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schwall_Camunda_GITHUB\JavaTraining-Batch1\Naveenraj\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE3C1B7-84A4-413B-817C-AE2D7544B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06FE5A6-3CA2-4359-BDAF-52D2279320A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0A44FA3-7F31-4732-B22F-EE26D4C01EE8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -77,6 +77,39 @@
   </si>
   <si>
     <t>Java practice output formatter</t>
+  </si>
+  <si>
+    <t>java hibernate join</t>
+  </si>
+  <si>
+    <t>Office visit</t>
+  </si>
+  <si>
+    <t>Full day in Office</t>
+  </si>
+  <si>
+    <t>Learned about java hibernate join</t>
+  </si>
+  <si>
+    <t>Implement JPA Joins</t>
+  </si>
+  <si>
+    <t>Implement JPA Joins in Employee management usecase</t>
+  </si>
+  <si>
+    <t>Employee Management System use case</t>
+  </si>
+  <si>
+    <t>Create endpoits for EMS usecase backend  code</t>
+  </si>
+  <si>
+    <t>Create Components for EMS usecase frontend Angular  code</t>
+  </si>
+  <si>
+    <t>Test &amp; Implement and create Demo video  for EMS Usecase</t>
+  </si>
+  <si>
+    <t>Insert Search Component in EMS usecase</t>
   </si>
 </sst>
 </file>
@@ -551,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8762BA8B-7581-40BF-B039-56F4917C6123}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,21 +702,177 @@
       <c r="B8" s="4">
         <v>44538</v>
       </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>44539</v>
       </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>44540</v>
       </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
-        <v>44541</v>
-      </c>
+        <v>44543</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>44544</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>44545</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>44546</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>44552</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>44553</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>44555</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
